--- a/results_114_snps/models_metrics/models_metrics.xlsx
+++ b/results_114_snps/models_metrics/models_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N229"/>
+  <dimension ref="A1:P229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,6 +428,16 @@
           <t>model_name</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>info_score</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -476,6 +486,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O2">
+        <v>0.304195</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -524,6 +542,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O3">
+        <v>0.304195</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -572,6 +598,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O4">
+        <v>0.300035</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -620,6 +654,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O5">
+        <v>0.300035</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -668,6 +710,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O6">
+        <v>0.300846</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -716,6 +766,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O7">
+        <v>0.300846</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -764,6 +822,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O8">
+        <v>0.316363</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -812,6 +878,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O9">
+        <v>0.316363</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -860,6 +934,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O10">
+        <v>0.30525</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -908,6 +990,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O11">
+        <v>0.30525</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -956,6 +1046,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O12">
+        <v>0.300397</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1004,6 +1102,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O13">
+        <v>0.300397</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1052,6 +1158,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O14">
+        <v>0.30026</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1100,6 +1214,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O15">
+        <v>0.30026</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1148,6 +1270,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O16">
+        <v>0.306719</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1196,6 +1326,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O17">
+        <v>0.306719</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1244,6 +1382,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O18">
+        <v>0.302615</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1292,6 +1438,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O19">
+        <v>0.302615</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1340,6 +1494,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O20">
+        <v>0.313427</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1388,6 +1550,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O21">
+        <v>0.313427</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1436,6 +1606,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O22">
+        <v>0.313434</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1484,6 +1662,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O23">
+        <v>0.313434</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1532,6 +1718,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O24">
+        <v>0.320418</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1580,6 +1774,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O25">
+        <v>0.320418</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1628,6 +1830,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O26">
+        <v>0.310422</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1676,6 +1886,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O27">
+        <v>0.310422</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1724,6 +1942,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O28">
+        <v>0.30828</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1772,6 +1998,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O29">
+        <v>0.30828</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1820,6 +2054,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O30">
+        <v>0.300531</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1868,6 +2110,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O31">
+        <v>0.300531</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1916,6 +2166,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O32">
+        <v>0.322337</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1964,6 +2222,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O33">
+        <v>0.322337</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2012,6 +2278,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O34">
+        <v>0.309457</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2060,6 +2334,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O35">
+        <v>0.309457</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2108,6 +2390,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O36">
+        <v>0.300267</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2156,6 +2446,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O37">
+        <v>0.300267</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2204,6 +2502,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O38">
+        <v>0.31234</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2252,6 +2558,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O39">
+        <v>0.31234</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2300,6 +2614,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O40">
+        <v>0.306033</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2348,6 +2670,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O41">
+        <v>0.306033</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2396,6 +2726,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O42">
+        <v>0.316377</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2444,6 +2782,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O43">
+        <v>0.316377</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2492,6 +2838,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O44">
+        <v>0.311955</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2540,6 +2894,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O45">
+        <v>0.311955</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2588,6 +2950,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O46">
+        <v>0.30496</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2636,6 +3006,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O47">
+        <v>0.30496</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2684,6 +3062,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O48">
+        <v>0.312682</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2732,6 +3118,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O49">
+        <v>0.312682</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2780,6 +3174,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O50">
+        <v>0.323849</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2828,6 +3230,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O51">
+        <v>0.323849</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -2876,6 +3286,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O52">
+        <v>0.323851</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -2924,6 +3342,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O53">
+        <v>0.323851</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -2972,6 +3398,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O54">
+        <v>0.318916</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3020,6 +3454,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O55">
+        <v>0.318916</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3068,6 +3510,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O56">
+        <v>0.317991</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3116,6 +3566,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O57">
+        <v>0.317991</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3164,6 +3622,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O58">
+        <v>0.308466</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3212,6 +3678,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O59">
+        <v>0.308466</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3260,6 +3734,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O60">
+        <v>0.323714</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3308,6 +3790,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O61">
+        <v>0.323714</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3356,6 +3846,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O62">
+        <v>0.323533</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3404,6 +3902,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O63">
+        <v>0.323533</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3452,6 +3958,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O64">
+        <v>0.320877</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3500,6 +4014,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O65">
+        <v>0.320877</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3548,6 +4070,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O66">
+        <v>0.314089</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3596,6 +4126,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O67">
+        <v>0.314089</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3644,6 +4182,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O68">
+        <v>0.303607</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3692,6 +4238,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O69">
+        <v>0.303607</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3740,6 +4294,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O70">
+        <v>0.320477</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3788,6 +4350,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O71">
+        <v>0.320477</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -3836,6 +4406,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O72">
+        <v>0.30828</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -3884,6 +4462,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O73">
+        <v>0.30828</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -3932,6 +4518,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O74">
+        <v>0.304493</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -3980,6 +4574,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O75">
+        <v>0.304493</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4028,6 +4630,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O76">
+        <v>0.309153</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4076,6 +4686,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O77">
+        <v>0.309153</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4124,6 +4742,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O78">
+        <v>0.304193</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4172,6 +4798,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O79">
+        <v>0.304193</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4220,6 +4854,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O80">
+        <v>0.320151</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4268,6 +4910,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O81">
+        <v>0.320151</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4316,6 +4966,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O82">
+        <v>0.30447</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4364,6 +5022,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O83">
+        <v>0.30447</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4412,6 +5078,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O84">
+        <v>0.309538</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4460,6 +5134,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O85">
+        <v>0.309538</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4508,6 +5190,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O86">
+        <v>0.932765</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4556,6 +5246,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O87">
+        <v>0.932765</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4604,6 +5302,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O88">
+        <v>0.958154</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4652,6 +5358,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O89">
+        <v>0.958154</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4700,6 +5414,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O90">
+        <v>0.316377</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4748,6 +5470,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O91">
+        <v>0.316377</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -4796,6 +5526,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O92">
+        <v>0.32329</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -4844,6 +5582,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O93">
+        <v>0.32329</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -4892,6 +5638,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O94">
+        <v>0.319851</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -4940,6 +5694,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O95">
+        <v>0.319851</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -4988,6 +5750,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O96">
+        <v>0.323199</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5036,6 +5806,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O97">
+        <v>0.323199</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5084,6 +5862,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O98">
+        <v>0.975857</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5132,6 +5918,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O99">
+        <v>0.975857</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5180,6 +5974,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O100">
+        <v>0.948284</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5228,6 +6030,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O101">
+        <v>0.948284</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5276,6 +6086,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O102">
+        <v>0.937492</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5324,6 +6142,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O103">
+        <v>0.937492</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5372,6 +6198,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O104">
+        <v>0.9867899999999999</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5420,6 +6254,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O105">
+        <v>0.9867899999999999</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5468,6 +6310,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O106">
+        <v>0.958912</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5516,6 +6366,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O107">
+        <v>0.958912</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5564,6 +6422,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O108">
+        <v>0.966533</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5612,6 +6478,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O109">
+        <v>0.966533</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5660,6 +6534,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O110">
+        <v>0.956151</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5708,6 +6590,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O111">
+        <v>0.956151</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -5756,6 +6646,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O112">
+        <v>0.955516</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -5804,6 +6702,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O113">
+        <v>0.955516</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -5852,6 +6758,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O114">
+        <v>0.95152</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -5900,6 +6814,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O115">
+        <v>0.95152</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -5948,6 +6870,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O116">
+        <v>0.96678</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -5996,6 +6926,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O117">
+        <v>0.96678</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6044,6 +6982,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O118">
+        <v>0.945993</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6092,6 +7038,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O119">
+        <v>0.945993</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6140,6 +7094,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O120">
+        <v>0.998626</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6188,6 +7150,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O121">
+        <v>0.998626</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6236,6 +7206,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O122">
+        <v>0.956971</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6284,6 +7262,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O123">
+        <v>0.956971</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6332,6 +7318,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O124">
+        <v>0.969746</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6380,6 +7374,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O125">
+        <v>0.969746</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6428,6 +7430,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O126">
+        <v>0.958655</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -6476,6 +7486,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O127">
+        <v>0.958655</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -6524,6 +7542,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O128">
+        <v>0.985222</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -6572,6 +7598,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O129">
+        <v>0.985222</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -6620,6 +7654,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O130">
+        <v>0.966143</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -6668,6 +7710,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O131">
+        <v>0.966143</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -6716,6 +7766,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O132">
+        <v>0.978822</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -6764,6 +7822,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O133">
+        <v>0.978822</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -6812,6 +7878,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O134">
+        <v>0.955213</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -6860,6 +7934,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O135">
+        <v>0.955213</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -6908,6 +7990,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O136">
+        <v>0.987468</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -6956,6 +8046,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O137">
+        <v>0.987468</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -7004,6 +8102,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O138">
+        <v>0.9983649999999999</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -7052,6 +8158,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O139">
+        <v>0.9983649999999999</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -7100,6 +8214,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O140">
+        <v>0.928406</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -7148,6 +8270,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O141">
+        <v>0.928406</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -7196,6 +8326,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O142">
+        <v>0.9745</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -7244,6 +8382,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O143">
+        <v>0.9745</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -7292,6 +8438,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O144">
+        <v>0.95308</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -7340,6 +8494,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O145">
+        <v>0.95308</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -7388,6 +8550,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O146">
+        <v>0.961104</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -7436,6 +8606,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O147">
+        <v>0.961104</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -7484,6 +8662,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O148">
+        <v>0.977622</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -7532,6 +8718,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O149">
+        <v>0.977622</v>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -7580,6 +8774,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O150">
+        <v>0.967151</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -7628,6 +8830,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O151">
+        <v>0.967151</v>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -7676,6 +8886,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O152">
+        <v>0.998237</v>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -7724,6 +8942,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O153">
+        <v>0.998237</v>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -7772,6 +8998,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O154">
+        <v>0.93421</v>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -7820,6 +9054,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O155">
+        <v>0.93421</v>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -7868,6 +9110,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O156">
+        <v>0.96789</v>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -7916,6 +9166,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O157">
+        <v>0.96789</v>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -7964,6 +9222,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O158">
+        <v>0.963989</v>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -8012,6 +9278,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O159">
+        <v>0.963989</v>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -8060,6 +9334,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O160">
+        <v>0.974741</v>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -8108,6 +9390,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O161">
+        <v>0.974741</v>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -8156,6 +9446,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O162">
+        <v>0.9978129999999999</v>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -8204,6 +9502,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O163">
+        <v>0.9978129999999999</v>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -8252,6 +9558,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O164">
+        <v>0.9889829999999999</v>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -8300,6 +9614,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O165">
+        <v>0.9889829999999999</v>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -8348,6 +9670,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O166">
+        <v>0.936319</v>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -8396,6 +9726,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O167">
+        <v>0.936319</v>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -8444,6 +9782,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O168">
+        <v>0.92885</v>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -8492,6 +9838,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O169">
+        <v>0.92885</v>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -8540,6 +9894,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O170">
+        <v>0.963498</v>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -8588,6 +9950,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O171">
+        <v>0.963498</v>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -8636,6 +10006,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O172">
+        <v>0.96592</v>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -8684,6 +10062,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O173">
+        <v>0.96592</v>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -8732,6 +10118,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O174">
+        <v>0.993137</v>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -8780,6 +10174,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O175">
+        <v>0.993137</v>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -8828,6 +10230,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O176">
+        <v>0.949344</v>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -8876,6 +10286,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O177">
+        <v>0.949344</v>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -8924,6 +10342,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O178">
+        <v>0.952361</v>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -8972,6 +10398,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O179">
+        <v>0.952361</v>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -9020,6 +10454,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O180">
+        <v>0.976677</v>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -9068,6 +10510,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O181">
+        <v>0.976677</v>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -9116,6 +10566,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O182">
+        <v>0.984877</v>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -9164,6 +10622,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O183">
+        <v>0.984877</v>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -9212,6 +10678,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O184">
+        <v>0.996591</v>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -9260,6 +10734,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O185">
+        <v>0.996591</v>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -9308,6 +10790,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O186">
+        <v>0.950919</v>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -9356,6 +10846,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O187">
+        <v>0.950919</v>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -9404,6 +10902,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O188">
+        <v>0.946627</v>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -9452,6 +10958,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O189">
+        <v>0.946627</v>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -9500,6 +11014,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O190">
+        <v>0.9810179999999999</v>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -9548,6 +11070,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O191">
+        <v>0.9810179999999999</v>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -9596,6 +11126,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O192">
+        <v>0.963856</v>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -9644,6 +11182,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O193">
+        <v>0.963856</v>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -9692,6 +11238,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O194">
+        <v>0.9826510000000001</v>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -9740,6 +11294,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O195">
+        <v>0.9826510000000001</v>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -9788,6 +11350,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O196">
+        <v>0.92411</v>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -9836,6 +11406,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O197">
+        <v>0.92411</v>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -9884,6 +11462,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O198">
+        <v>0.96554</v>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -9932,6 +11518,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O199">
+        <v>0.96554</v>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -9980,6 +11574,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O200">
+        <v>0.990433</v>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -10028,6 +11630,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O201">
+        <v>0.990433</v>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -10076,6 +11686,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O202">
+        <v>0.922121</v>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -10124,6 +11742,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O203">
+        <v>0.922121</v>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -10172,6 +11798,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O204">
+        <v>0.967594</v>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -10220,6 +11854,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O205">
+        <v>0.967594</v>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -10268,6 +11910,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O206">
+        <v>0.9514860000000001</v>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -10316,6 +11966,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O207">
+        <v>0.9514860000000001</v>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -10364,6 +12022,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O208">
+        <v>0.976674</v>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -10412,6 +12078,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O209">
+        <v>0.976674</v>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -10460,6 +12134,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O210">
+        <v>0.994401</v>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -10508,6 +12190,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O211">
+        <v>0.994401</v>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -10556,6 +12246,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O212">
+        <v>0.9611730000000001</v>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -10604,6 +12302,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O213">
+        <v>0.9611730000000001</v>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -10652,6 +12358,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O214">
+        <v>0.958507</v>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -10700,6 +12414,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O215">
+        <v>0.958507</v>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -10748,6 +12470,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O216">
+        <v>0.966266</v>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -10796,6 +12526,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O217">
+        <v>0.966266</v>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -10844,6 +12582,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O218">
+        <v>0.964464</v>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -10892,6 +12638,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O219">
+        <v>0.964464</v>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -10940,6 +12694,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O220">
+        <v>0.978399</v>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -10988,6 +12750,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O221">
+        <v>0.978399</v>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -11036,6 +12806,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O222">
+        <v>0.976127</v>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -11084,6 +12862,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O223">
+        <v>0.976127</v>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -11132,6 +12918,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O224">
+        <v>0.98612</v>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -11180,6 +12974,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O225">
+        <v>0.98612</v>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -11228,6 +13030,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O226">
+        <v>0.954417</v>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227">
@@ -11276,6 +13086,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="O227">
+        <v>0.954417</v>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -11324,6 +13142,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="O228">
+        <v>0.987544</v>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -11370,6 +13196,14 @@
       <c r="N229" t="inlineStr">
         <is>
           <t>minus</t>
+        </is>
+      </c>
+      <c r="O229">
+        <v>0.987544</v>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
